--- a/biology/Histoire de la zoologie et de la botanique/Itō_Keisuke/Itō_Keisuke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Itō_Keisuke/Itō_Keisuke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>It%C5%8D_Keisuke</t>
+          <t>Itō_Keisuke</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Itō Keisuke (伊藤圭介, 18 février 1803 - 20 janvier 1901) est un médecin et un biologiste japonais, né à Nagoya. Il étudie les sciences occidentales auprès de Philipp Franz von Siebold dans les années 1820.
 En tant que docteur, Ito a créé un vaccin contre la variole. Il a également étudié la flore et la faune japonaises avec Philipp Franz von Siebold, l'auteur de Fauna Japonica et Flora Japonica. Le Rhododendron Keiskei a été nommé en son honneur.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>It%C5%8D_Keisuke</t>
+          <t>Itō_Keisuke</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(ja) Itō Keisuke, Taisei honzou meiso (泰西本草名疏),‎ 1829 (lire en ligne).</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>It%C5%8D_Keisuke</t>
+          <t>Itō_Keisuke</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Keisuke Ito » (voir la liste des auteurs).</t>
         </is>
